--- a/Table.xlsx
+++ b/Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFE\MFE Sem 2\ISE 447\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFE\Github\finops_casestudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C4241-D4AD-4CCB-9293-48343AF3EA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89373F-D886-4C37-8CF7-B52D6C705FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18000" yWindow="5610" windowWidth="13500" windowHeight="15435" firstSheet="1" activeTab="3" xr2:uid="{9A4F8817-3DB2-484A-9927-7DB01F2CDB34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{9A4F8817-3DB2-484A-9927-7DB01F2CDB34}"/>
   </bookViews>
   <sheets>
     <sheet name="Prompt" sheetId="2" r:id="rId1"/>
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB9CAB7-9AB0-4847-A751-566AC64A6BFC}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -629,19 +629,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44545</v>
       </c>
       <c r="B2" s="6">
         <v>11</v>
       </c>
-      <c r="D2">
-        <f>YEAR(A2)</f>
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44727</v>
       </c>
@@ -649,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44910</v>
       </c>
@@ -657,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45092</v>
       </c>
@@ -665,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45275</v>
       </c>
@@ -673,7 +669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45458</v>
       </c>
@@ -681,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45641</v>
       </c>
@@ -689,7 +685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45823</v>
       </c>
@@ -697,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>46006</v>
       </c>
@@ -705,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>46188</v>
       </c>
@@ -713,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>46371</v>
       </c>
@@ -721,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>46553</v>
       </c>
@@ -729,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>46736</v>
       </c>
@@ -737,7 +733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>46919</v>
       </c>
@@ -745,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>47102</v>
       </c>
@@ -770,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F24682-B8B0-4572-978E-D584927F7F9E}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,8 +789,8 @@
         <v>44910</v>
       </c>
       <c r="B2" s="6">
-        <f>Prompt!B2*1000</f>
-        <v>11000</v>
+        <f>Prompt!B2</f>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,8 +799,8 @@
         <v>45092</v>
       </c>
       <c r="B3" s="6">
-        <f>Prompt!B3*1000</f>
-        <v>9000</v>
+        <f>Prompt!B3</f>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -813,8 +809,8 @@
         <v>45275</v>
       </c>
       <c r="B4" s="6">
-        <f>Prompt!B4*1000</f>
-        <v>8000</v>
+        <f>Prompt!B4</f>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,8 +819,8 @@
         <v>45458</v>
       </c>
       <c r="B5" s="6">
-        <f>Prompt!B5*1000</f>
-        <v>7000</v>
+        <f>Prompt!B5</f>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,8 +829,8 @@
         <v>45641</v>
       </c>
       <c r="B6" s="6">
-        <f>Prompt!B6*1000</f>
-        <v>9000</v>
+        <f>Prompt!B6</f>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,8 +839,8 @@
         <v>45823</v>
       </c>
       <c r="B7" s="6">
-        <f>Prompt!B7*1000</f>
-        <v>10000</v>
+        <f>Prompt!B7</f>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,8 +849,8 @@
         <v>46006</v>
       </c>
       <c r="B8" s="6">
-        <f>Prompt!B8*1000</f>
-        <v>9000</v>
+        <f>Prompt!B8</f>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,8 +859,8 @@
         <v>46188</v>
       </c>
       <c r="B9" s="6">
-        <f>Prompt!B9*1000</f>
-        <v>12000</v>
+        <f>Prompt!B9</f>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,8 +869,8 @@
         <v>46371</v>
       </c>
       <c r="B10" s="6">
-        <f>Prompt!B10*1000</f>
-        <v>9000</v>
+        <f>Prompt!B10</f>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -883,8 +879,8 @@
         <v>46553</v>
       </c>
       <c r="B11" s="6">
-        <f>Prompt!B11*1000</f>
-        <v>6000</v>
+        <f>Prompt!B11</f>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,8 +889,8 @@
         <v>46736</v>
       </c>
       <c r="B12" s="6">
-        <f>Prompt!B12*1000</f>
-        <v>5000</v>
+        <f>Prompt!B12</f>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,8 +899,8 @@
         <v>46919</v>
       </c>
       <c r="B13" s="6">
-        <f>Prompt!B13*1000</f>
-        <v>7000</v>
+        <f>Prompt!B13</f>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,8 +909,8 @@
         <v>47102</v>
       </c>
       <c r="B14" s="6">
-        <f>Prompt!B14*1000</f>
-        <v>9000</v>
+        <f>Prompt!B14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,8 +919,8 @@
         <v>47284</v>
       </c>
       <c r="B15" s="6">
-        <f>Prompt!B15*1000</f>
-        <v>7000</v>
+        <f>Prompt!B15</f>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,8 +929,8 @@
         <v>47467</v>
       </c>
       <c r="B16" s="6">
-        <f>Prompt!B16*1000</f>
-        <v>8000</v>
+        <f>Prompt!B16</f>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,8 +939,8 @@
         <v>47649</v>
       </c>
       <c r="B17" s="6">
-        <f>Prompt!B17*1000</f>
-        <v>7000</v>
+        <f>Prompt!B17</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3022-FDE1-4DC1-80B2-4A8FAFB68DBF}">
   <dimension ref="A1:F362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
